--- a/weather_forecast.xlsx
+++ b/weather_forecast.xlsx
@@ -441,85 +441,85 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2023-05-13</t>
+          <t>2023-05-15</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>+23°</t>
+          <t>+26°</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>+10°</t>
+          <t>+13°</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2023-05-14</t>
+          <t>2023-05-16</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>+23°</t>
+          <t>+17°</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>+12°</t>
+          <t>+14°</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2023-05-15</t>
+          <t>2023-05-17</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>+24°</t>
+          <t>+20°</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>+14°</t>
+          <t>+16°</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>2023-05-16</t>
+          <t>2023-05-18</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>+21°</t>
+          <t>+25°</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>+15°</t>
+          <t>+14°</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2023-05-17</t>
+          <t>2023-05-19</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>+23°</t>
+          <t>+25°</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>+15°</t>
+          <t>+18°</t>
         </is>
       </c>
     </row>
